--- a/biology/Botanique/Poire_de_terre/Poire_de_terre.xlsx
+++ b/biology/Botanique/Poire_de_terre/Poire_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Smallanthus sonchifolius
-La poire de terre, ou yacón (Smallanthus sonchifolius), est une espèce de plante à fleurs de la famille des Astéracées, originaire d'Amérique du Sud[1]. C'est une plante vivace tubéreuse, parfois cultivée pour ses tubercules comestibles croquants et au goût sucré. C'est un proche parent du tournesol et du topinambour.
+La poire de terre, ou yacón (Smallanthus sonchifolius), est une espèce de plante à fleurs de la famille des Astéracées, originaire d'Amérique du Sud. C'est une plante vivace tubéreuse, parfois cultivée pour ses tubercules comestibles croquants et au goût sucré. C'est un proche parent du tournesol et du topinambour.
 Aussi appelée Polymnia edulis Wedd, Polymnia sonchifolia (Poeppig &amp; Endlicher), elle a pour autres noms vernaculaires aricoma, jíquima, jiquimilla.
 À noter que le nom de « poire de terre » est parfois employé pour désigner les tubercules du topinambour, autre Composée voisine. Le terme allemand autrichien Grundbirne, qui a notamment donné crompire en wallon liégeois ou krumpir en croate, signifie également « poire de terre », mais désigne en fait la pomme de terre.
 </t>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace par ses tubercules sous climat chaud, dont les hampes florales peuvent atteindre deux mètres de haut. Les tiges robustes, à section cannelée, sont de couleur pourprée.
 Les feuilles, de forme générale triangulaire, sont découpées, opposées, à pétiole velu, le limbe se prolongeant en partie en aile sur le haut du pétiole.
@@ -549,10 +563,12 @@
           <t>Aire de distribution et utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est spontanée dans les régions andines (Pérou, Bolivie, Colombie, Équateur, Argentine) dans des zones de montagne vers 2 000 m d'altitude.
-On la cultive localement dans différents pays andins, ainsi que dans certaines îles des Antilles ainsi qu'à la Réunion. La culture du yacón par des petits producteurs est commune, généralement pour leur consommation familiale. Il se multiplie par reproduction végétative et, dans le système traditionnel des populations qui le consomment, son tubercule est utilisé comme un fruit[2].
+On la cultive localement dans différents pays andins, ainsi que dans certaines îles des Antilles ainsi qu'à la Réunion. La culture du yacón par des petits producteurs est commune, généralement pour leur consommation familiale. Il se multiplie par reproduction végétative et, dans le système traditionnel des populations qui le consomment, son tubercule est utilisé comme un fruit.
 </t>
         </is>
       </c>
@@ -581,11 +597,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Contrairement à beaucoup d'autres légumes-racines domestiqués par les Incas (ulluco, oca), le yacón n'est pas sensible à la photopériode et peut produire un rendement commercial même hors des tropiques[réf. nécessaire].
-Importée en France au XIXe siècle[Passage contradictoire (contradiction avec la section suivante)][3], la poire de terre n'y a pas connu de succès, le goût de ses tubercules n'ayant pas été apprécié.
-Sa culture est toutefois facile[4]. Une méthode de multiplication consiste à diviser au printemps la partie qui se trouve juste au-dessous du niveau de la terre, partie à laquelle sont attachés les tubercules. Sur chaque bout de ces morceaux doit se trouver une pousse, les mettre alors dans un pot rempli de terreau.
+Importée en France au XIXe siècle[Passage contradictoire (contradiction avec la section suivante)], la poire de terre n'y a pas connu de succès, le goût de ses tubercules n'ayant pas été apprécié.
+Sa culture est toutefois facile. Une méthode de multiplication consiste à diviser au printemps la partie qui se trouve juste au-dessous du niveau de la terre, partie à laquelle sont attachés les tubercules. Sur chaque bout de ces morceaux doit se trouver une pousse, les mettre alors dans un pot rempli de terreau.
 Lorsqu’ils auront poussé, choisir le bon endroit pour les planter : un endroit bien exposé, avec une terre riche et bien drainée.
 Avant de les mettre en terre, il faut s’assurer qu’il n’y a plus de risque de gelée. Comme le yacón demande beaucoup de place, 1,5 m entre chaque plant est préférable[réf. nécessaire].
 </t>
@@ -616,9 +634,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le yacón est consommé sous trois formes : les tubercules, le sirop de yacón et le thé de yacón[5]. Les tubercules peuvent être mangés crus ou cuits[6]. Leur goût rappelle la pomme ou la poire. Les produits à base de Yacón sont très populaires chez les personnes diabétiques ou au régime qui les consomment en raison de leur faible teneur en sucre. La faible teneur en sucre est due au fait que le tubercule est composé de FOS (fructo-oligosacharrides), un type particulier de fructose que le corps humain ne peut pas absorber. Le sirop est également un prébiotique.[réf. nécessaire]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le yacón est consommé sous trois formes : les tubercules, le sirop de yacón et le thé de yacón. Les tubercules peuvent être mangés crus ou cuits. Leur goût rappelle la pomme ou la poire. Les produits à base de Yacón sont très populaires chez les personnes diabétiques ou au régime qui les consomment en raison de leur faible teneur en sucre. La faible teneur en sucre est due au fait que le tubercule est composé de FOS (fructo-oligosacharrides), un type particulier de fructose que le corps humain ne peut pas absorber. Le sirop est également un prébiotique.[réf. nécessaire]
 Il semble que la poire de terre ait été utilisée et cultivée en France, puisqu'elle apparaît dans le Calendrier Républicain[Passage contradictoire (dans la section précédente il est question du XIXe siècle)] et y est fêtée le 13 brumaire sous le nom de « Poireterre » (parfois écrit « Poirreterre »).
 </t>
         </is>
